--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/10/seed2/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.23350000000002</v>
+        <v>-22.12810000000001</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -687,7 +687,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.53319999999999</v>
+        <v>-11.60529999999999</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.14729999999998</v>
+        <v>-20.30029999999999</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.27569999999998</v>
+        <v>-20.33199999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -768,7 +768,7 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>5.676900000000002</v>
+        <v>6.080699999999995</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.822</v>
+        <v>-21.86969999999999</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>6.019900000000002</v>
+        <v>5.804600000000002</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -936,7 +936,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.41120000000001</v>
+        <v>9.368300000000007</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1062,7 +1062,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.045600000000002</v>
+        <v>5.038800000000003</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>6.264100000000003</v>
+        <v>5.784300000000002</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>5.943199999999995</v>
+        <v>6.427499999999994</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1149,7 +1149,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.9546</v>
+        <v>-11.8388</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.555999999999998</v>
+        <v>5.6059</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.8934</v>
+        <v>-21.91569999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>5.917600000000001</v>
+        <v>5.988300000000002</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1188,7 +1188,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.863600000000003</v>
+        <v>4.883200000000004</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1205,7 +1205,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.3665</v>
+        <v>-13.4898</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.22700000000001</v>
+        <v>-22.18800000000002</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-21.88059999999999</v>
+        <v>-21.85199999999999</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1331,7 +1331,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-10.59069999999999</v>
+        <v>-10.80589999999999</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.66149999999999</v>
+        <v>-21.60569999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1412,7 +1412,7 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>6.211800000000002</v>
+        <v>6.7258</v>
       </c>
       <c r="C70" t="n">
         <v>-9.9</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.04150000000002</v>
+        <v>-19.8472</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1555,7 +1555,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-12.72720000000001</v>
+        <v>-13.3775</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.80599999999999</v>
+        <v>-21.81439999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1636,7 +1636,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>5.0856</v>
+        <v>5.092700000000001</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1650,7 +1650,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>5.957399999999994</v>
+        <v>5.800099999999993</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1723,7 +1723,7 @@
         <v>4.82</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.44370000000001</v>
+        <v>-10.648</v>
       </c>
       <c r="D92" t="n">
         <v>-6.84</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.19680000000001</v>
+        <v>-21.34290000000001</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1751,7 +1751,7 @@
         <v>6.16</v>
       </c>
       <c r="C94" t="n">
-        <v>-10.5654</v>
+        <v>-10.574</v>
       </c>
       <c r="D94" t="n">
         <v>-5.32</v>
@@ -1779,7 +1779,7 @@
         <v>4.26</v>
       </c>
       <c r="C96" t="n">
-        <v>-10.14450000000001</v>
+        <v>-10.1089</v>
       </c>
       <c r="D96" t="n">
         <v>-5.14</v>
@@ -1846,7 +1846,7 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>4.809199999999999</v>
+        <v>4.925800000000001</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
